--- a/Day2Pt1.xlsx
+++ b/Day2Pt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rshore/Dropbox/Advent of Code/2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA97F8-851D-7A4D-B0C1-9F2DCA25B2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DACEC76-92ED-9441-A5CD-A476978CFD1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23140" windowHeight="19500" activeTab="1" xr2:uid="{39FE9911-7FE7-FE49-8821-770503C14366}"/>
   </bookViews>
